--- a/docs/CareConnect-EpisodeOfCare-1.xlsx
+++ b/docs/CareConnect-EpisodeOfCare-1.xlsx
@@ -462,7 +462,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
